--- a/pred_ohlcv/54/2019-10-19 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 HYC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -428,6 +433,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -452,6 +460,9 @@
         <v>6.136666666666662</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -608,7 +634,10 @@
         <v>6.131166666666662</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +663,10 @@
         <v>6.129333333333329</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +692,10 @@
         <v>6.127666666666661</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -740,6 +781,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -790,6 +837,9 @@
         <v>6.123666666666661</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -842,6 +895,9 @@
         <v>6.123666666666661</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -894,6 +953,9 @@
         <v>6.123333333333329</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -946,6 +1011,9 @@
         <v>6.122333333333328</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +1040,9 @@
         <v>6.122999999999995</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1128,6 +1214,9 @@
         <v>6.121999999999995</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,6 +1243,9 @@
         <v>6.121499999999995</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,552 +1272,9 @@
         <v>6.120833333333327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F32" t="n">
-        <v>399.2659</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.120333333333327</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="C33" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F33" t="n">
-        <v>532.585</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.119666666666661</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>534.3565</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.119166666666661</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F35" t="n">
-        <v>686.1743</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6.118333333333328</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1235.2731</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.117666666666662</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1013.101</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.117166666666662</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="F38" t="n">
-        <v>6664.3508</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6.11683333333333</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4095.954</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6.116499999999997</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D40" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F40" t="n">
-        <v>212909.2527</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6.116499999999997</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F41" t="n">
-        <v>140611.1744</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.117499999999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D42" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E42" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F42" t="n">
-        <v>16100</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.118333333333329</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C43" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D43" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F43" t="n">
-        <v>45084.9025</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6.118666666666663</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E44" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F44" t="n">
-        <v>62.8003</v>
-      </c>
-      <c r="G44" t="n">
-        <v>6.118999999999997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D45" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E45" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F45" t="n">
-        <v>167.857</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6.120166666666664</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C46" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E46" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F46" t="n">
-        <v>83.84739999999999</v>
-      </c>
-      <c r="G46" t="n">
-        <v>6.121499999999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D47" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E47" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F47" t="n">
-        <v>298.8211</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.122666666666665</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F48" t="n">
-        <v>9484.152</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6.121999999999998</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D49" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F49" t="n">
-        <v>578.2030999999999</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.122333333333331</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D50" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>20267.6016</v>
-      </c>
-      <c r="G50" t="n">
-        <v>6.122666666666664</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C51" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F51" t="n">
-        <v>84.065</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6.122999999999997</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C52" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D52" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E52" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2651.8697</v>
-      </c>
-      <c r="G52" t="n">
-        <v>6.12333333333333</v>
-      </c>
-      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
